--- a/SFE - EmptySpace/LUKE_T50_P200.xlsx
+++ b/SFE - EmptySpace/LUKE_T50_P200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - CostFunction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - EmptySpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A35F4-8403-42A5-8359-5B8BD78B4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA2B42-5D24-44D1-BD13-9CA6A6395540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -405,7 +407,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,7 +545,7 @@
         <v>45</v>
       </c>
       <c r="G12">
-        <v>33.299999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H12">
         <v>0.4</v>
@@ -554,8 +556,8 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <f>G12+4.3</f>
-        <v>37.599999999999994</v>
+        <f>G12+3.5</f>
+        <v>37.299999999999997</v>
       </c>
       <c r="H13">
         <v>0.37</v>
@@ -566,7 +568,7 @@
         <v>55</v>
       </c>
       <c r="G14">
-        <f>G12+7.6</f>
+        <f>G12+7.1</f>
         <v>40.9</v>
       </c>
       <c r="H14">
@@ -579,7 +581,7 @@
       </c>
       <c r="G15">
         <f>G12+10.4</f>
-        <v>43.699999999999996</v>
+        <v>44.199999999999996</v>
       </c>
       <c r="H15">
         <v>0.38</v>
@@ -591,7 +593,7 @@
       </c>
       <c r="G16">
         <f>G12+13</f>
-        <v>46.3</v>
+        <v>46.8</v>
       </c>
       <c r="H16">
         <v>0.41</v>
@@ -603,7 +605,7 @@
       </c>
       <c r="G17">
         <f>G12+15.3</f>
-        <v>48.599999999999994</v>
+        <v>49.099999999999994</v>
       </c>
       <c r="H17">
         <v>0.4</v>
@@ -615,7 +617,7 @@
       </c>
       <c r="G18">
         <f>G12 +17.1</f>
-        <v>50.4</v>
+        <v>50.9</v>
       </c>
       <c r="H18">
         <v>0.4</v>
@@ -627,7 +629,7 @@
       </c>
       <c r="G19">
         <f>G12+18.8</f>
-        <v>52.099999999999994</v>
+        <v>52.599999999999994</v>
       </c>
       <c r="H19">
         <v>0.39</v>
@@ -639,7 +641,7 @@
       </c>
       <c r="G20">
         <f>G12+20.2</f>
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>0.37</v>
@@ -651,7 +653,7 @@
       </c>
       <c r="G21">
         <f>G12+21.6</f>
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="H21">
         <v>0.38</v>
@@ -663,7 +665,7 @@
       </c>
       <c r="G22">
         <f>G12+22.8</f>
-        <v>56.099999999999994</v>
+        <v>56.599999999999994</v>
       </c>
       <c r="H22">
         <v>0.4</v>
@@ -675,7 +677,7 @@
       </c>
       <c r="G23">
         <f>G12+24</f>
-        <v>57.3</v>
+        <v>57.8</v>
       </c>
       <c r="H23">
         <v>0.39</v>
@@ -687,7 +689,7 @@
       </c>
       <c r="G24">
         <f>G12+24.8</f>
-        <v>58.099999999999994</v>
+        <v>58.599999999999994</v>
       </c>
       <c r="H24">
         <v>0.37</v>
@@ -699,7 +701,7 @@
       </c>
       <c r="G25">
         <f>G12+26</f>
-        <v>59.3</v>
+        <v>59.8</v>
       </c>
       <c r="H25">
         <v>0.39</v>
@@ -711,7 +713,7 @@
       </c>
       <c r="G26">
         <f>G12+27.1</f>
-        <v>60.4</v>
+        <v>60.9</v>
       </c>
       <c r="H26">
         <v>0.42</v>
@@ -723,7 +725,7 @@
       </c>
       <c r="G27">
         <f>G12+28.3</f>
-        <v>61.599999999999994</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="H27">
         <v>0.4</v>
@@ -735,7 +737,7 @@
       </c>
       <c r="G28">
         <f>G12+29.2</f>
-        <v>62.5</v>
+        <v>63</v>
       </c>
       <c r="H28">
         <v>0.37</v>
@@ -747,7 +749,7 @@
       </c>
       <c r="G29">
         <f>G12+30.3</f>
-        <v>63.599999999999994</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="H29">
         <v>0.39</v>
@@ -759,7 +761,7 @@
       </c>
       <c r="G30">
         <f>G12+31.3</f>
-        <v>64.599999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="H30">
         <v>0.41</v>
@@ -771,7 +773,7 @@
       </c>
       <c r="G31">
         <f>G12+32.2</f>
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="H31">
         <v>0.42</v>
@@ -783,7 +785,7 @@
       </c>
       <c r="G32">
         <f>G12+33.1</f>
-        <v>66.400000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H32">
         <v>0.41</v>
@@ -795,7 +797,7 @@
       </c>
       <c r="G33">
         <f>G12+33.9</f>
-        <v>67.199999999999989</v>
+        <v>67.699999999999989</v>
       </c>
       <c r="H33">
         <v>0.41</v>
